--- a/biology/Botanique/Fallugia_paradoxa/Fallugia_paradoxa.xlsx
+++ b/biology/Botanique/Fallugia_paradoxa/Fallugia_paradoxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fallugia paradoxa est une espèce de plantes à fleurs de la famille des Rosaceae, originaire du Mexique et du sud des États-Unis.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante forme un buisson atteignant 2 m de hauteur, aux branches nombreuses, minces et emmêlées. Les feuilles de 1,5 à 2,5 cm de longueur sont épaisses et divisées en 5 à 7 lobes très étroits[1].
-Appareil reproducteur
-La floraison a lieu de mai à octobre. Les fleurs sont blanches et mesurent entre 2,5 et 3,8 cm de diamètre. La fleur est typique d'une fleur de Rosaceae, avec 5 pétales insérés sur un réceptacle en forme de coupe (appelé hypanthe), et de nombreuses étamines[1].
-Le fruit est constitué d'akènes prolongés par des structures plumeuses de 2 à 5 cm de long[1], au rachis rouge ou brun-rouge couvert de poils de couleur argentée. Ces structures, nombreuses, forment une touffe arrondie. Elles facilitent la dissémination des akènes par le vent.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante forme un buisson atteignant 2 m de hauteur, aux branches nombreuses, minces et emmêlées. Les feuilles de 1,5 à 2,5 cm de longueur sont épaisses et divisées en 5 à 7 lobes très étroits.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mai à octobre. Les fleurs sont blanches et mesurent entre 2,5 et 3,8 cm de diamètre. La fleur est typique d'une fleur de Rosaceae, avec 5 pétales insérés sur un réceptacle en forme de coupe (appelé hypanthe), et de nombreuses étamines.
+Le fruit est constitué d'akènes prolongés par des structures plumeuses de 2 à 5 cm de long, au rachis rouge ou brun-rouge couvert de poils de couleur argentée. Ces structures, nombreuses, forment une touffe arrondie. Elles facilitent la dissémination des akènes par le vent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fallugia_paradoxa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fallugia_paradoxa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur les pentes ou les plaines caillouteuses, dans des zones désertiques ou arides du sud-ouest des États-Unis (Californie, Nevada, Colorado, Texas) et du nord du Mexique.
 </t>
